--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2019" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2019-08-20" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2019-09-17" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -408,7 +408,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-08-20</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -1,36 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\idea\jingle-wx\jingle\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C88E8-0855-4916-B690-0501987BBFA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2019" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2019-09-17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="2" r:id="rId2"/>
+    <sheet name="2019-09-17" sheetId="3" r:id="rId3"/>
+    <sheet name="2019-09-30" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>红利机会</t>
+  </si>
+  <si>
+    <t>深证F60</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>指数名</t>
+  </si>
+  <si>
+    <t>指数值</t>
+  </si>
+  <si>
+    <t>年线</t>
+  </si>
+  <si>
+    <t>偏离程度</t>
+  </si>
+  <si>
+    <t>投资因子</t>
+  </si>
+  <si>
+    <t>投资金额</t>
+  </si>
+  <si>
+    <t>中证消费</t>
+  </si>
+  <si>
+    <t>基本面60</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,15 +111,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -342,231 +416,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>总金额</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>红利机会</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>深证F60</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019-09-17</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>1057.3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>391.9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>118.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>546.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="C3">
+        <v>189.7</v>
+      </c>
+      <c r="D3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>24.1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>指数名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>指数值</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>年线</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>偏离程度</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>投资因子</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>投资金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>4600</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4804</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.434782608695656</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>4.4347826086956559</v>
+      </c>
+      <c r="E2">
         <v>12.15915048866232</v>
       </c>
-      <c r="F2" t="n">
-        <v>391.8590031749466</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="F2">
+        <v>391.85900317494662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>3633</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3486</v>
       </c>
-      <c r="D3" t="n">
-        <v>-4.04624277456648</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.678125105400184</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3">
+        <v>-4.0462427745664797</v>
+      </c>
+      <c r="E3">
+        <v>3.6781251054001838</v>
+      </c>
+      <c r="F3">
         <v>118.5367710267912</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>红利机会</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>7453</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8142</v>
       </c>
-      <c r="D4" t="n">
-        <v>9.244599490138199</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>9.2445994901381994</v>
+      </c>
+      <c r="E4">
         <v>16.96896737010486</v>
       </c>
-      <c r="F4" t="n">
-        <v>546.8673691272836</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>深证F60</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="F4">
+        <v>546.86736912728361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>7198</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6642</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-7.724367879966664</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4941</v>
+      </c>
+      <c r="C2">
+        <v>4824</v>
+      </c>
+      <c r="D2">
+        <v>2.41</v>
+      </c>
+      <c r="E2">
+        <v>1.024</v>
+      </c>
+      <c r="F2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3815</v>
+      </c>
+      <c r="C3">
+        <v>3561</v>
+      </c>
+      <c r="D3">
+        <v>7.12</v>
+      </c>
+      <c r="E3">
+        <v>1.071</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>15584</v>
+      </c>
+      <c r="C4">
+        <v>12949</v>
+      </c>
+      <c r="D4">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>7495</v>
+      </c>
+      <c r="C5">
+        <v>6874</v>
+      </c>
+      <c r="D5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -1,101 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\idea\jingle-wx\jingle\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C88E8-0855-4916-B690-0501987BBFA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="2019" sheetId="2" r:id="rId2"/>
-    <sheet name="2019-09-17" sheetId="3" r:id="rId3"/>
-    <sheet name="2019-09-30" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-09-17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-09-30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-10-06" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>红利机会</t>
-  </si>
-  <si>
-    <t>深证F60</t>
-  </si>
-  <si>
-    <t>2019-09-17</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>指数名</t>
-  </si>
-  <si>
-    <t>指数值</t>
-  </si>
-  <si>
-    <t>年线</t>
-  </si>
-  <si>
-    <t>偏离程度</t>
-  </si>
-  <si>
-    <t>投资因子</t>
-  </si>
-  <si>
-    <t>投资金额</t>
-  </si>
-  <si>
-    <t>中证消费</t>
-  </si>
-  <si>
-    <t>基本面60</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,24 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -416,322 +350,557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>红利机会</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>深证F60</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-09-17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1057.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>546.9</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1057.3</v>
-      </c>
-      <c r="C2">
-        <v>391.9</v>
-      </c>
-      <c r="D2">
-        <v>118.5</v>
-      </c>
-      <c r="E2">
-        <v>546.9</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-09-30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>285.60000000000002</v>
-      </c>
-      <c r="C3">
-        <v>189.7</v>
-      </c>
-      <c r="D3">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="E3">
+      <c r="F3" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-10-06</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>660.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>314.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>24.1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4600</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4804</v>
       </c>
-      <c r="D2">
-        <v>4.4347826086956559</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>4.434782608695656</v>
+      </c>
+      <c r="E2" t="n">
         <v>12.15915048866232</v>
       </c>
-      <c r="F2">
-        <v>391.85900317494662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="F2" t="n">
+        <v>391.8590031749466</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3633</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3486</v>
       </c>
-      <c r="D3">
-        <v>-4.0462427745664797</v>
-      </c>
-      <c r="E3">
-        <v>3.6781251054001838</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="n">
+        <v>-4.04624277456648</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.678125105400184</v>
+      </c>
+      <c r="F3" t="n">
         <v>118.5367710267912</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>红利机会</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7453</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>8142</v>
       </c>
-      <c r="D4">
-        <v>9.2445994901381994</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>9.244599490138199</v>
+      </c>
+      <c r="E4" t="n">
         <v>16.96896737010486</v>
       </c>
-      <c r="F4">
-        <v>546.86736912728361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="F4" t="n">
+        <v>546.8673691272836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深证F60</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>7198</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6642</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>-7.724367879966664</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4941</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4824</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2.41</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.024</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3815</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3561</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>7.12</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1.071</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>15584</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>12949</v>
       </c>
-      <c r="D4">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>7495</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6874</v>
       </c>
-      <c r="D5">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F5" t="n">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="F2" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4941</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4824</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="F3" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7495</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6874</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F4" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15584</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-09-17" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-09-30" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-10-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-11-07" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -54,15 +55,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -363,7 +364,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -374,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -382,7 +383,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10.875"/>
+    <col width="10.875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,8 +484,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>558.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>308.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>125</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -623,7 +646,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -762,7 +785,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -901,6 +924,170 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3623</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5007</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4877</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7970</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7055</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16496</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13449</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -2,29 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="15300" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-11-14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-06" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,7 +59,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -347,15 +354,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>595.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -367,11 +430,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -408,23 +471,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595.3</v>
+        <v>1148.6</v>
       </c>
       <c r="C2" t="n">
-        <v>192.7</v>
+        <v>365.6</v>
       </c>
       <c r="D2" t="n">
-        <v>252.8</v>
+        <v>341.2</v>
       </c>
       <c r="E2" t="n">
-        <v>149.9</v>
+        <v>315.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.2</v>
       </c>
     </row>
   </sheetData>
@@ -444,6 +507,170 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3635</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4876</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7727</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7089</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16371</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13561</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -490,16 +717,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3900</v>
+        <v>3829</v>
       </c>
       <c r="C2" t="n">
-        <v>3635</v>
+        <v>3814</v>
       </c>
       <c r="D2" t="n">
-        <v>7.29</v>
+        <v>0.38</v>
       </c>
       <c r="E2" t="n">
-        <v>1.073</v>
+        <v>1.004</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,7 +734,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>193</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -517,24 +744,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4876</v>
+        <v>5124</v>
       </c>
       <c r="C3" t="n">
-        <v>4886</v>
+        <v>5056</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.22</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998</v>
+        <v>1.014</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>低估</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>253</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
@@ -544,16 +771,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7727</v>
+        <v>7766</v>
       </c>
       <c r="C4" t="n">
-        <v>7089</v>
+        <v>7586</v>
       </c>
       <c r="D4" t="n">
-        <v>9.01</v>
+        <v>2.38</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09</v>
+        <v>1.024</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -561,7 +788,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
@@ -571,16 +798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16371</v>
+        <v>14845</v>
       </c>
       <c r="C5" t="n">
-        <v>13561</v>
+        <v>14860</v>
       </c>
       <c r="D5" t="n">
-        <v>20.71</v>
+        <v>-0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>1.207</v>
+        <v>0.999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -588,7 +815,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -1,43 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\jingle-wx\jingle\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C00525-F503-4ADB-8589-6636559B2FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="15300" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1650" yWindow="300" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-11-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2020" sheetId="2" r:id="rId2"/>
+    <sheet name="2019-11-14" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-02-06" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>基本面60</t>
+  </si>
+  <si>
+    <t>中证消费</t>
+  </si>
+  <si>
+    <t>2019-11-14</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>指数名</t>
+  </si>
+  <si>
+    <t>指数值</t>
+  </si>
+  <si>
+    <t>年线</t>
+  </si>
+  <si>
+    <t>偏离程度</t>
+  </si>
+  <si>
+    <t>投资因子</t>
+  </si>
+  <si>
+    <t>估值状态</t>
+  </si>
+  <si>
+    <t>投资金额</t>
+  </si>
+  <si>
+    <t>低估</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>100.38%</t>
+  </si>
+  <si>
+    <t>101.35%</t>
+  </si>
+  <si>
+    <t>102.38%</t>
+  </si>
+  <si>
+    <t>99.9%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,12 +136,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -349,476 +438,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>总金额</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>基本面60</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>中证消费</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019-11-14</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>595.3</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>595.29999999999995</v>
+      </c>
+      <c r="C2">
         <v>192.7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>252.8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>149.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>总金额</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>基本面60</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>中证消费</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2020-02-06</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1148.6</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1148.5999999999999</v>
+      </c>
+      <c r="C2">
         <v>365.6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>341.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>315.6</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="F2">
         <v>126.2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>指数名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>指数值</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>年线</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>偏离程度</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>投资因子</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>估值状态</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>投资金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3900</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3635</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7.29</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.073</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>低估</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>193</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4876</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4886</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-0.22</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <v>253</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>基本面60</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>7727</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7089</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9.01</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>低估</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>150</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中证消费</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>16371</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13561</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20.71</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.207</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>指数名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>指数值</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>年线</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>偏离程度</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>投资因子</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>估值状态</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>投资金额</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3829</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3814</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>低估</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>366</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>5124</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5056</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.014</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>低估</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>341</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>基本面60</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>7766</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7586</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.024</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>低估</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>316</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中证消费</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>14845</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>14860</v>
       </c>
-      <c r="D5" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>126</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -1,36 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\jingle-wx\jingle\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C00525-F503-4ADB-8589-6636559B2FC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="300" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="300" windowWidth="15300" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2020" sheetId="2" r:id="rId2"/>
     <sheet name="2019-11-14" sheetId="3" r:id="rId3"/>
     <sheet name="2020-02-06" sheetId="4" r:id="rId4"/>
+    <sheet name="2020-02-22" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
@@ -93,13 +81,20 @@
   </si>
   <si>
     <t>99.9%</t>
+  </si>
+  <si>
+    <t>因为优惠，冲动投资，大忌</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,22 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,16 +426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -484,6 +472,86 @@
         <v>149.9</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1148.5999999999999</v>
+      </c>
+      <c r="C2">
+        <v>365.6</v>
+      </c>
+      <c r="D2">
+        <v>341.2</v>
+      </c>
+      <c r="E2">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="F2">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
@@ -494,76 +562,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1148.5999999999999</v>
-      </c>
-      <c r="C2">
-        <v>365.6</v>
-      </c>
-      <c r="D2">
-        <v>341.2</v>
-      </c>
-      <c r="E2">
-        <v>315.60000000000002</v>
-      </c>
-      <c r="F2">
-        <v>126.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +615,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -626,7 +635,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -673,14 +682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -703,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -726,7 +735,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -749,7 +758,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -772,7 +781,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -799,4 +808,73 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -1,118 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="300" windowWidth="15300" windowHeight="7875" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1650" yWindow="300" windowWidth="15300" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="2020" sheetId="2" r:id="rId2"/>
-    <sheet name="2019-11-14" sheetId="3" r:id="rId3"/>
-    <sheet name="2020-02-06" sheetId="4" r:id="rId4"/>
-    <sheet name="2020-02-22" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019-11-14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-03-24" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>基本面60</t>
-  </si>
-  <si>
-    <t>中证消费</t>
-  </si>
-  <si>
-    <t>2019-11-14</t>
-  </si>
-  <si>
-    <t>2020-02-06</t>
-  </si>
-  <si>
-    <t>指数名</t>
-  </si>
-  <si>
-    <t>指数值</t>
-  </si>
-  <si>
-    <t>年线</t>
-  </si>
-  <si>
-    <t>偏离程度</t>
-  </si>
-  <si>
-    <t>投资因子</t>
-  </si>
-  <si>
-    <t>估值状态</t>
-  </si>
-  <si>
-    <t>投资金额</t>
-  </si>
-  <si>
-    <t>低估</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>100.38%</t>
-  </si>
-  <si>
-    <t>101.35%</t>
-  </si>
-  <si>
-    <t>102.38%</t>
-  </si>
-  <si>
-    <t>99.9%</t>
-  </si>
-  <si>
-    <t>因为优惠，冲动投资，大忌</t>
-  </si>
-  <si>
-    <t>2020-02-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,13 +58,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -426,455 +352,790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-11-14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>595.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>595.29999999999995</v>
-      </c>
-      <c r="C2">
-        <v>192.7</v>
-      </c>
-      <c r="D2">
-        <v>252.8</v>
-      </c>
-      <c r="E2">
-        <v>149.9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>总金额</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1148.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>365.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2020-02-22</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1148.5999999999999</v>
-      </c>
-      <c r="C2">
-        <v>365.6</v>
-      </c>
-      <c r="D2">
-        <v>341.2</v>
-      </c>
-      <c r="E2">
-        <v>315.60000000000002</v>
-      </c>
-      <c r="F2">
-        <v>126.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1571.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>413.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>175.4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>3900</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3635</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7.29</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>4876</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>4886</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>-0.22</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7727</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7089</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>9.01</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>16371</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>13561</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>20.71</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>3829</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3814</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.38%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5124</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5056</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.35%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7766</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7586</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.38%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>14845</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14860</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99.9%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>因为优惠，冲动投资，大忌</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3530</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3880</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.0%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5156</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.95%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7031</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7783</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.34%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14818</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15441</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.97%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-06" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-22" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-03-24" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-04-29" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -538,6 +539,28 @@
       </c>
       <c r="F4" t="n">
         <v>175.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1113.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>413.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1138,4 +1161,176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3849</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3865</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.59%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5228</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5115</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>202.21%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7517</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7755</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>196.93%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17910</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15728</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>213.87%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.387</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/jingle/resource/定投记录.xlsx
+++ b/jingle/resource/定投记录.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-02-22" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-03-24" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-04-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-05-26" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -560,6 +561,28 @@
         <v>413.3</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1077.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>388.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>407</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1333,4 +1356,176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>指数名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>指数值</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>年线</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>偏离程度</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>投资因子</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>估值状态</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投资金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3829</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3871</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>198.94%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5127</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>203.7%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7562</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7760</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>197.44%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>低估</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17876</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15936</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>212.17%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.217</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>